--- a/biology/Zoologie/Hirondelle_à_gorge_grise/Hirondelle_à_gorge_grise.xlsx
+++ b/biology/Zoologie/Hirondelle_à_gorge_grise/Hirondelle_à_gorge_grise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_grise</t>
+          <t>Hirondelle_à_gorge_grise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hirondelle à gorge grise (Riparia chinensis) est une espèce d'oiseaux de la famille des Hirundinidae, autrefois considérée comme sous-espèce de l'Hirondelle paludicole (R. paludicola).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_grise</t>
+          <t>Hirondelle_à_gorge_grise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau a les parties supérieures brun clair et les inférieures blanchâtres.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_grise</t>
+          <t>Hirondelle_à_gorge_grise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_grise</t>
+          <t>Hirondelle_à_gorge_grise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon le Congrès ornithologique international et Alan P. Peterson il existe deux sous-espèces[1],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon le Congrès ornithologique international et Alan P. Peterson il existe deux sous-espèces, :
 R. c. chinensis (J.E. Gray, 1830) : du Tadjikistan et le Nord de l'Afghanistan au Sud de la Chine, en Indochine et à Taïwan ;
 R. c. tantilla Riley, 1935 : île de Luçon (Philippines).</t>
         </is>
